--- a/调试计划.xlsx
+++ b/调试计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Apriltag信息显示</t>
   </si>
   <si>
+    <t xml:space="preserve">未成功</t>
+  </si>
+  <si>
     <t xml:space="preserve">当前位置的显示与更新</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">yaml文件复制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成功</t>
   </si>
   <si>
     <t xml:space="preserve">路径发送与执行</t>
@@ -141,16 +147,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,7 +356,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -372,7 +382,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>6.28</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -381,37 +391,50 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/调试计划.xlsx
+++ b/调试计划.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -105,12 +105,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,7 +159,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -161,6 +173,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -173,6 +193,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,10 +433,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,7 +471,7 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -403,7 +483,7 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -415,7 +495,7 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -427,6 +507,9 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
@@ -436,10 +519,55 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
